--- a/Documentation/Working_Documents/Interact_Switch_BOM.xlsx
+++ b/Documentation/Working_Documents/Interact_Switch_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc-my.sharepoint.com/personal/bradw_neilsquire_ca/Documents/Documents/GitHub/Interact-Switch/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3189EA2E-7F2C-4FA8-834C-FAEF65F5F19D}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240151AC-5560-4A7A-88CD-0E5C8F096BDA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -558,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="14" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
@@ -596,6 +593,10 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="14" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -625,10 +626,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,7 +894,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,17 +919,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1081,7 +1078,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="75" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1541,464 +1538,464 @@
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="44"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="45"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="44"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="45"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="44"/>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="45"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="44"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="45"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="45"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="44"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="45"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="44"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="45"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="44"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="45"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="44"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="45"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="44"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="45"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="44"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="45"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="44"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="45"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="44"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="45"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="44"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="45"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="44"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="45"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="44"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="45"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="44"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="45"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="44"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="45"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="44"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="45"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="44"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="45"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="44"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="45"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="44"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="45"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="44"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="45"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2007,13 +2004,34 @@
   <hyperlinks>
     <hyperlink ref="N10" r:id="rId1" xr:uid="{E0EE9891-962A-4849-9A59-FE06D61CED23}"/>
     <hyperlink ref="N9" r:id="rId2" xr:uid="{1838815B-EBE7-4CD1-9624-9BF8A8ADAF2A}"/>
+    <hyperlink ref="N8" r:id="rId3" xr:uid="{40F26416-4C16-48C1-A480-0E3ECE1FE82B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -2262,27 +2280,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E754FF-A61B-4A88-B516-AC8192A9AA35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2299,23 +2316,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>